--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2702,28 +2702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2586.405461899644</v>
+        <v>2715.735386631305</v>
       </c>
       <c r="AB2" t="n">
-        <v>3538.834057127208</v>
+        <v>3715.788965778671</v>
       </c>
       <c r="AC2" t="n">
-        <v>3201.092701499647</v>
+        <v>3361.159282027182</v>
       </c>
       <c r="AD2" t="n">
-        <v>2586405.461899644</v>
+        <v>2715735.386631305</v>
       </c>
       <c r="AE2" t="n">
-        <v>3538834.057127208</v>
+        <v>3715788.965778671</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.036654741853328e-06</v>
+        <v>1.494508251161026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3201092.701499647</v>
+        <v>3361159.282027182</v>
       </c>
     </row>
     <row r="3">
@@ -2808,28 +2808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>855.9756205687385</v>
+        <v>925.0425629326065</v>
       </c>
       <c r="AB3" t="n">
-        <v>1171.183607041351</v>
+        <v>1265.684044602044</v>
       </c>
       <c r="AC3" t="n">
-        <v>1059.40748735184</v>
+        <v>1144.888935783938</v>
       </c>
       <c r="AD3" t="n">
-        <v>855975.6205687384</v>
+        <v>925042.5629326066</v>
       </c>
       <c r="AE3" t="n">
-        <v>1171183.607041351</v>
+        <v>1265684.044602044</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.960540821244987e-06</v>
+        <v>2.826441934612023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.50208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1059407.48735184</v>
+        <v>1144888.935783938</v>
       </c>
     </row>
     <row r="4">
@@ -2914,28 +2914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>636.5134919110665</v>
+        <v>688.3137881925185</v>
       </c>
       <c r="AB4" t="n">
-        <v>870.9058406261282</v>
+        <v>941.7812912661965</v>
       </c>
       <c r="AC4" t="n">
-        <v>787.787809520794</v>
+        <v>851.899006626094</v>
       </c>
       <c r="AD4" t="n">
-        <v>636513.4919110665</v>
+        <v>688313.7881925185</v>
       </c>
       <c r="AE4" t="n">
-        <v>870905.8406261283</v>
+        <v>941781.2912661965</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.303952763592683e-06</v>
+        <v>3.321526711312425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.19166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>787787.809520794</v>
+        <v>851899.006626094</v>
       </c>
     </row>
     <row r="5">
@@ -3020,28 +3020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.6004240588564</v>
+        <v>596.3153794857367</v>
       </c>
       <c r="AB5" t="n">
-        <v>745.1463262723622</v>
+        <v>815.9050097902331</v>
       </c>
       <c r="AC5" t="n">
-        <v>674.0306067123646</v>
+        <v>738.0361807857258</v>
       </c>
       <c r="AD5" t="n">
-        <v>544600.4240588564</v>
+        <v>596315.3794857367</v>
       </c>
       <c r="AE5" t="n">
-        <v>745146.3262723623</v>
+        <v>815905.0097902331</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.463258558428573e-06</v>
+        <v>3.551192206706154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.33958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>674030.6067123646</v>
+        <v>738036.1807857258</v>
       </c>
     </row>
     <row r="6">
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>544.5875678801892</v>
+        <v>596.3025233070697</v>
       </c>
       <c r="AB6" t="n">
-        <v>745.1287358815354</v>
+        <v>815.8874193994062</v>
       </c>
       <c r="AC6" t="n">
-        <v>674.01469512375</v>
+        <v>738.0202691971112</v>
       </c>
       <c r="AD6" t="n">
-        <v>544587.5678801893</v>
+        <v>596302.5233070697</v>
       </c>
       <c r="AE6" t="n">
-        <v>745128.7358815353</v>
+        <v>815887.4193994062</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.466613900261198e-06</v>
+        <v>3.556029483623788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.32083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>674014.69512375</v>
+        <v>738020.2691971113</v>
       </c>
     </row>
     <row r="7">
@@ -3232,28 +3232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>545.3990772271532</v>
+        <v>597.1140326540334</v>
       </c>
       <c r="AB7" t="n">
-        <v>746.2390787713169</v>
+        <v>816.9977622891878</v>
       </c>
       <c r="AC7" t="n">
-        <v>675.0190684465067</v>
+        <v>739.0246425198679</v>
       </c>
       <c r="AD7" t="n">
-        <v>545399.0772271531</v>
+        <v>597114.0326540334</v>
       </c>
       <c r="AE7" t="n">
-        <v>746239.0787713169</v>
+        <v>816997.7622891878</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.470698664231349e-06</v>
+        <v>3.561918342480037e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>675019.0684465067</v>
+        <v>739024.642519868</v>
       </c>
     </row>
   </sheetData>
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1536.733811317404</v>
+        <v>1637.657553122869</v>
       </c>
       <c r="AB2" t="n">
-        <v>2102.626996555432</v>
+        <v>2240.71531253492</v>
       </c>
       <c r="AC2" t="n">
-        <v>1901.955227059705</v>
+        <v>2026.86458797028</v>
       </c>
       <c r="AD2" t="n">
-        <v>1536733.811317404</v>
+        <v>1637657.553122869</v>
       </c>
       <c r="AE2" t="n">
-        <v>2102626.996555433</v>
+        <v>2240715.31253492</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377253933197642e-06</v>
+        <v>2.016247947350554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1901955.227059705</v>
+        <v>2026864.58797028</v>
       </c>
     </row>
     <row r="3">
@@ -3635,28 +3635,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.4502534363197</v>
+        <v>714.2869669753205</v>
       </c>
       <c r="AB3" t="n">
-        <v>896.8159531759363</v>
+        <v>977.3189403326036</v>
       </c>
       <c r="AC3" t="n">
-        <v>811.2250972939198</v>
+        <v>884.0449923430068</v>
       </c>
       <c r="AD3" t="n">
-        <v>655450.2534363198</v>
+        <v>714286.9669753205</v>
       </c>
       <c r="AE3" t="n">
-        <v>896815.9531759364</v>
+        <v>977318.9403326035</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.235207977710967e-06</v>
+        <v>3.272260393185301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.06666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>811225.0972939198</v>
+        <v>884044.9923430068</v>
       </c>
     </row>
     <row r="4">
@@ -3741,28 +3741,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.8297517220869</v>
+        <v>570.6663757525366</v>
       </c>
       <c r="AB4" t="n">
-        <v>700.3080466411661</v>
+        <v>780.8109113282849</v>
       </c>
       <c r="AC4" t="n">
-        <v>633.471629558249</v>
+        <v>706.2914138261094</v>
       </c>
       <c r="AD4" t="n">
-        <v>511829.7517220869</v>
+        <v>570666.3757525366</v>
       </c>
       <c r="AE4" t="n">
-        <v>700308.0466411661</v>
+        <v>780810.9113282849</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501724572717217e-06</v>
+        <v>3.662430662199225e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.56666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>633471.629558249</v>
+        <v>706291.4138261094</v>
       </c>
     </row>
     <row r="5">
@@ -3847,28 +3847,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>512.8272645017446</v>
+        <v>571.6638885321943</v>
       </c>
       <c r="AB5" t="n">
-        <v>701.6728876334519</v>
+        <v>782.1757523205706</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.7062120417974</v>
+        <v>707.5259963096577</v>
       </c>
       <c r="AD5" t="n">
-        <v>512827.2645017446</v>
+        <v>571663.8885321943</v>
       </c>
       <c r="AE5" t="n">
-        <v>701672.8876334518</v>
+        <v>782175.7523205706</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.503988303705379e-06</v>
+        <v>3.665744679206705e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55625</v>
       </c>
       <c r="AH5" t="n">
-        <v>634706.2120417973</v>
+        <v>707525.9963096577</v>
       </c>
     </row>
     <row r="6">
@@ -3953,28 +3953,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>513.8185823240449</v>
+        <v>564.4084645086347</v>
       </c>
       <c r="AB6" t="n">
-        <v>703.0292524117785</v>
+        <v>772.248561084819</v>
       </c>
       <c r="AC6" t="n">
-        <v>635.9331272693506</v>
+        <v>698.5462422725458</v>
       </c>
       <c r="AD6" t="n">
-        <v>513818.5823240449</v>
+        <v>564408.4645086346</v>
       </c>
       <c r="AE6" t="n">
-        <v>703029.2524117786</v>
+        <v>772248.561084819</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.507912104084859e-06</v>
+        <v>3.671488975353003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5375</v>
       </c>
       <c r="AH6" t="n">
-        <v>635933.1272693506</v>
+        <v>698546.2422725458</v>
       </c>
     </row>
   </sheetData>
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.5871064792511</v>
+        <v>536.8728762729094</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.2969693254603</v>
+        <v>734.573154476282</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.2791533056544</v>
+        <v>664.4665235929623</v>
       </c>
       <c r="AD2" t="n">
-        <v>482587.1064792511</v>
+        <v>536872.8762729093</v>
       </c>
       <c r="AE2" t="n">
-        <v>660296.9693254603</v>
+        <v>734573.154476282</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.439605012702978e-06</v>
+        <v>3.77437008220986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38125</v>
       </c>
       <c r="AH2" t="n">
-        <v>597279.1533056544</v>
+        <v>664466.5235929623</v>
       </c>
     </row>
     <row r="3">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.3827535003223</v>
+        <v>528.6685232939807</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.0714116291817</v>
+        <v>723.3475967800034</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.1249470807395</v>
+        <v>654.3123173680475</v>
       </c>
       <c r="AD3" t="n">
-        <v>474382.7535003223</v>
+        <v>528668.5232939806</v>
       </c>
       <c r="AE3" t="n">
-        <v>649071.4116291817</v>
+        <v>723347.5967800034</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.472948133605524e-06</v>
+        <v>3.825956005884709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>587124.9470807395</v>
+        <v>654312.3173680475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.4185399886114</v>
+        <v>531.7043097822698</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.2251086319063</v>
+        <v>727.5012937827281</v>
       </c>
       <c r="AC4" t="n">
-        <v>590.8822210712744</v>
+        <v>658.0695913585824</v>
       </c>
       <c r="AD4" t="n">
-        <v>477418.5399886114</v>
+        <v>531704.3097822698</v>
       </c>
       <c r="AE4" t="n">
-        <v>653225.1086319063</v>
+        <v>727501.2937827281</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.472948133605524e-06</v>
+        <v>3.825956005884709e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>590882.2210712745</v>
+        <v>658069.5913585825</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>723.4530025282279</v>
+        <v>787.5394752761638</v>
       </c>
       <c r="AB2" t="n">
-        <v>989.8603145530404</v>
+        <v>1077.546253862404</v>
       </c>
       <c r="AC2" t="n">
-        <v>895.3894354097746</v>
+        <v>974.7067517394407</v>
       </c>
       <c r="AD2" t="n">
-        <v>723453.0025282279</v>
+        <v>787539.4752761638</v>
       </c>
       <c r="AE2" t="n">
-        <v>989860.3145530404</v>
+        <v>1077546.253862404</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.036980693981612e-06</v>
+        <v>3.078476636641973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.47708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>895389.4354097745</v>
+        <v>974706.7517394407</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.8781860530521</v>
+        <v>533.8578524346719</v>
       </c>
       <c r="AB3" t="n">
-        <v>653.8540166554275</v>
+        <v>730.4478658473414</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.4511069957088</v>
+        <v>660.7349467208888</v>
       </c>
       <c r="AD3" t="n">
-        <v>477878.1860530521</v>
+        <v>533857.8524346719</v>
       </c>
       <c r="AE3" t="n">
-        <v>653854.0166554275</v>
+        <v>730447.8658473414</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524154817565952e-06</v>
+        <v>3.814739951194751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>591451.1069957088</v>
+        <v>660734.9467208888</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.3067488682477</v>
+        <v>535.2864152498676</v>
       </c>
       <c r="AB4" t="n">
-        <v>655.8086393229214</v>
+        <v>732.4024885148355</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.2191832191472</v>
+        <v>662.5030229443274</v>
       </c>
       <c r="AD4" t="n">
-        <v>479306.7488682477</v>
+        <v>535286.4152498676</v>
       </c>
       <c r="AE4" t="n">
-        <v>655808.6393229214</v>
+        <v>732402.4885148355</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.527537971201954e-06</v>
+        <v>3.819852890879145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.27916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>593219.1832191473</v>
+        <v>662503.0229443274</v>
       </c>
     </row>
   </sheetData>
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.0778438037523</v>
+        <v>543.3777447002893</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.9684177826458</v>
+        <v>743.4734024331647</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.88651966447</v>
+        <v>672.5173443764166</v>
       </c>
       <c r="AD2" t="n">
-        <v>483077.8438037523</v>
+        <v>543377.7447002893</v>
       </c>
       <c r="AE2" t="n">
-        <v>660968.4177826458</v>
+        <v>743473.4024331647</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.35971241117512e-06</v>
+        <v>3.729497126524494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>597886.51966447</v>
+        <v>672517.3443764166</v>
       </c>
     </row>
     <row r="3">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.0710491051793</v>
+        <v>545.3709500017162</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.69560921007</v>
+        <v>746.2005938605888</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.3534317696981</v>
+        <v>674.9842564816446</v>
       </c>
       <c r="AD3" t="n">
-        <v>485071.0491051793</v>
+        <v>545370.9500017163</v>
       </c>
       <c r="AE3" t="n">
-        <v>663695.60921007</v>
+        <v>746200.5938605889</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.36478442866134e-06</v>
+        <v>3.737513389248272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.40833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>600353.431769698</v>
+        <v>674984.2564816446</v>
       </c>
     </row>
   </sheetData>
@@ -5671,28 +5671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1746.531878729387</v>
+        <v>1848.136819212651</v>
       </c>
       <c r="AB2" t="n">
-        <v>2389.681968026012</v>
+        <v>2528.702330088828</v>
       </c>
       <c r="AC2" t="n">
-        <v>2161.614074937316</v>
+        <v>2287.366528761161</v>
       </c>
       <c r="AD2" t="n">
-        <v>1746531.878729387</v>
+        <v>1848136.819212651</v>
       </c>
       <c r="AE2" t="n">
-        <v>2389681.968026012</v>
+        <v>2528702.330088828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.286811977215051e-06</v>
+        <v>1.876025537985037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.21458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2161614.074937316</v>
+        <v>2287366.528761161</v>
       </c>
     </row>
     <row r="3">
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.8134521413725</v>
+        <v>760.0474793624342</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.8838829272727</v>
+        <v>1039.930492191978</v>
       </c>
       <c r="AC3" t="n">
-        <v>867.3693509426753</v>
+        <v>940.6809855687879</v>
       </c>
       <c r="AD3" t="n">
-        <v>700813.4521413725</v>
+        <v>760047.4793624341</v>
       </c>
       <c r="AE3" t="n">
-        <v>958883.8829272727</v>
+        <v>1039930.492191978</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.162783356869695e-06</v>
+        <v>3.153092201859787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>867369.3509426753</v>
+        <v>940680.9855687879</v>
       </c>
     </row>
     <row r="4">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>527.9682576141894</v>
+        <v>587.2021953267001</v>
       </c>
       <c r="AB4" t="n">
-        <v>722.3894623833717</v>
+        <v>803.435949178529</v>
       </c>
       <c r="AC4" t="n">
-        <v>653.4456259734802</v>
+        <v>726.7571498183664</v>
       </c>
       <c r="AD4" t="n">
-        <v>527968.2576141894</v>
+        <v>587202.1953267001</v>
       </c>
       <c r="AE4" t="n">
-        <v>722389.4623833717</v>
+        <v>803435.949178529</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.47416672931992e-06</v>
+        <v>3.607053751149054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>653445.6259734802</v>
+        <v>726757.1498183664</v>
       </c>
     </row>
     <row r="5">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>519.167193833004</v>
+        <v>569.9270384016254</v>
       </c>
       <c r="AB5" t="n">
-        <v>710.3474586424227</v>
+        <v>779.7993173475063</v>
       </c>
       <c r="AC5" t="n">
-        <v>642.5528941685091</v>
+        <v>705.3763649550755</v>
       </c>
       <c r="AD5" t="n">
-        <v>519167.193833004</v>
+        <v>569927.0384016254</v>
       </c>
       <c r="AE5" t="n">
-        <v>710347.4586424227</v>
+        <v>779799.3173475063</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.499442324874237e-06</v>
+        <v>3.643902695351689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>642552.8941685091</v>
+        <v>705376.3649550754</v>
       </c>
     </row>
     <row r="6">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>520.7363292619542</v>
+        <v>571.4961738305756</v>
       </c>
       <c r="AB6" t="n">
-        <v>712.4944189616817</v>
+        <v>781.9462776667654</v>
       </c>
       <c r="AC6" t="n">
-        <v>644.4949516081758</v>
+        <v>707.318422394742</v>
       </c>
       <c r="AD6" t="n">
-        <v>520736.3292619542</v>
+        <v>571496.1738305755</v>
       </c>
       <c r="AE6" t="n">
-        <v>712494.4189616818</v>
+        <v>781946.2776667654</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.499591884611244e-06</v>
+        <v>3.644120736441645e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.46458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>644494.9516081759</v>
+        <v>707318.422394742</v>
       </c>
     </row>
     <row r="7">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>521.4261658948462</v>
+        <v>572.1860104634676</v>
       </c>
       <c r="AB7" t="n">
-        <v>713.4382838762491</v>
+        <v>782.8901425813327</v>
       </c>
       <c r="AC7" t="n">
-        <v>645.3487353800195</v>
+        <v>708.1722061665857</v>
       </c>
       <c r="AD7" t="n">
-        <v>521426.1658948463</v>
+        <v>572186.0104634676</v>
       </c>
       <c r="AE7" t="n">
-        <v>713438.2838762491</v>
+        <v>782890.1425813327</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.503629997510455e-06</v>
+        <v>3.650007845870468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.44583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>645348.7353800195</v>
+        <v>708172.2061665858</v>
       </c>
     </row>
   </sheetData>
@@ -6498,28 +6498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.5617156228774</v>
+        <v>565.3946325977</v>
       </c>
       <c r="AB2" t="n">
-        <v>682.1541343057864</v>
+        <v>773.5978797709437</v>
       </c>
       <c r="AC2" t="n">
-        <v>617.0503011369822</v>
+        <v>699.7667838770476</v>
       </c>
       <c r="AD2" t="n">
-        <v>498561.7156228775</v>
+        <v>565394.6325977</v>
       </c>
       <c r="AE2" t="n">
-        <v>682154.1343057865</v>
+        <v>773597.8797709437</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259526412674825e-06</v>
+        <v>3.620292070612722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.50416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>617050.3011369822</v>
+        <v>699766.7838770476</v>
       </c>
     </row>
     <row r="3">
@@ -6604,28 +6604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.3035758862169</v>
+        <v>561.7012203885469</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.2739125973118</v>
+        <v>768.5443902445336</v>
       </c>
       <c r="AC3" t="n">
-        <v>621.6814549740183</v>
+        <v>695.1955922984208</v>
       </c>
       <c r="AD3" t="n">
-        <v>502303.5758862169</v>
+        <v>561701.2203885468</v>
       </c>
       <c r="AE3" t="n">
-        <v>687273.9125973118</v>
+        <v>768544.3902445335</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261674251470143e-06</v>
+        <v>3.623733412885168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4875</v>
       </c>
       <c r="AH3" t="n">
-        <v>621681.4549740183</v>
+        <v>695195.5922984208</v>
       </c>
     </row>
   </sheetData>
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.783726559443</v>
+        <v>1149.94526257858</v>
       </c>
       <c r="AB2" t="n">
-        <v>1460.988801971981</v>
+        <v>1573.405840264514</v>
       </c>
       <c r="AC2" t="n">
-        <v>1321.554081222436</v>
+        <v>1423.242195158634</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067783.726559443</v>
+        <v>1149945.26257858</v>
       </c>
       <c r="AE2" t="n">
-        <v>1460988.801971981</v>
+        <v>1573405.840264514</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674934247851368e-06</v>
+        <v>2.487014723561273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1321554.081222436</v>
+        <v>1423242.195158634</v>
       </c>
     </row>
     <row r="3">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.0232065548317</v>
+        <v>564.4225729952203</v>
       </c>
       <c r="AB3" t="n">
-        <v>704.6774724286115</v>
+        <v>772.2678649385879</v>
       </c>
       <c r="AC3" t="n">
-        <v>637.4240434810685</v>
+        <v>698.5637037936042</v>
       </c>
       <c r="AD3" t="n">
-        <v>515023.2065548317</v>
+        <v>564422.5729952203</v>
       </c>
       <c r="AE3" t="n">
-        <v>704677.4724286115</v>
+        <v>772267.8649385879</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477727185249865e-06</v>
+        <v>3.679036355361019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.075</v>
       </c>
       <c r="AH3" t="n">
-        <v>637424.0434810685</v>
+        <v>698563.7037936042</v>
       </c>
     </row>
     <row r="4">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.6655918604363</v>
+        <v>546.2127407596751</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.613821187847</v>
+        <v>747.352369112815</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.8022564990698</v>
+        <v>676.0261079203251</v>
       </c>
       <c r="AD4" t="n">
-        <v>488665.5918604363</v>
+        <v>546212.740759675</v>
       </c>
       <c r="AE4" t="n">
-        <v>668613.8211878469</v>
+        <v>747352.369112815</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.52810582397098e-06</v>
+        <v>3.753840734346708e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>604802.2564990699</v>
+        <v>676026.1079203251</v>
       </c>
     </row>
     <row r="5">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>490.8645795838175</v>
+        <v>548.4117284830562</v>
       </c>
       <c r="AB5" t="n">
-        <v>671.6225732034686</v>
+        <v>750.3611211284366</v>
       </c>
       <c r="AC5" t="n">
-        <v>607.5238574451306</v>
+        <v>678.7477088663859</v>
       </c>
       <c r="AD5" t="n">
-        <v>490864.5795838175</v>
+        <v>548411.7284830562</v>
       </c>
       <c r="AE5" t="n">
-        <v>671622.5732034686</v>
+        <v>750361.1211284366</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.528261313596662e-06</v>
+        <v>3.754071612059627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>607523.8574451306</v>
+        <v>678747.7088663859</v>
       </c>
     </row>
   </sheetData>
@@ -7516,28 +7516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1363.307659863405</v>
+        <v>1455.251227201519</v>
       </c>
       <c r="AB2" t="n">
-        <v>1865.337685114251</v>
+        <v>1991.138930210172</v>
       </c>
       <c r="AC2" t="n">
-        <v>1687.31247446483</v>
+        <v>1801.107425291952</v>
       </c>
       <c r="AD2" t="n">
-        <v>1363307.659863405</v>
+        <v>1455251.227201519</v>
       </c>
       <c r="AE2" t="n">
-        <v>1865337.685114251</v>
+        <v>1991138.930210172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.470166451552149e-06</v>
+        <v>2.161795201771817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.58958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1687312.47446483</v>
+        <v>1801107.425291952</v>
       </c>
     </row>
     <row r="3">
@@ -7622,28 +7622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.9954720142763</v>
+        <v>659.5050148658031</v>
       </c>
       <c r="AB3" t="n">
-        <v>822.3085188588913</v>
+        <v>902.3638566472048</v>
       </c>
       <c r="AC3" t="n">
-        <v>743.8285479362527</v>
+        <v>816.2435166444219</v>
       </c>
       <c r="AD3" t="n">
-        <v>600995.4720142763</v>
+        <v>659505.0148658031</v>
       </c>
       <c r="AE3" t="n">
-        <v>822308.5188588912</v>
+        <v>902363.8566472048</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.314179108712656e-06</v>
+        <v>3.402867265794186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.71458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>743828.5479362527</v>
+        <v>816243.5166444218</v>
       </c>
     </row>
     <row r="4">
@@ -7728,28 +7728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.3661875403191</v>
+        <v>562.7903895372743</v>
       </c>
       <c r="AB4" t="n">
-        <v>690.0960688584582</v>
+        <v>770.0346395245741</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.2342686025221</v>
+        <v>696.5436142787523</v>
       </c>
       <c r="AD4" t="n">
-        <v>504366.187540319</v>
+        <v>562790.3895372744</v>
       </c>
       <c r="AE4" t="n">
-        <v>690096.0688584582</v>
+        <v>770034.6395245742</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.510252085204638e-06</v>
+        <v>3.691181299439817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.64375</v>
       </c>
       <c r="AH4" t="n">
-        <v>624234.2686025221</v>
+        <v>696543.6142787524</v>
       </c>
     </row>
     <row r="5">
@@ -7834,28 +7834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>505.1779432397039</v>
+        <v>563.6021452366591</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.2067488184906</v>
+        <v>771.1453194846064</v>
       </c>
       <c r="AC5" t="n">
-        <v>625.2389468260179</v>
+        <v>697.5482925022483</v>
       </c>
       <c r="AD5" t="n">
-        <v>505177.9432397039</v>
+        <v>563602.1452366591</v>
       </c>
       <c r="AE5" t="n">
-        <v>691206.7488184907</v>
+        <v>771145.3194846064</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.514365504291882e-06</v>
+        <v>3.697229845600215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.62291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>625238.9468260179</v>
+        <v>697548.2925022483</v>
       </c>
     </row>
     <row r="6">
@@ -7940,28 +7940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>505.9394109340973</v>
+        <v>564.3636129310526</v>
       </c>
       <c r="AB6" t="n">
-        <v>692.2486225115433</v>
+        <v>772.1871931776593</v>
       </c>
       <c r="AC6" t="n">
-        <v>626.1813855560847</v>
+        <v>698.4907312323151</v>
       </c>
       <c r="AD6" t="n">
-        <v>505939.4109340973</v>
+        <v>564363.6129310526</v>
       </c>
       <c r="AE6" t="n">
-        <v>692248.6225115433</v>
+        <v>772187.1931776593</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.51817422566896e-06</v>
+        <v>3.702830351304286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>626181.3855560847</v>
+        <v>698490.7312323151</v>
       </c>
     </row>
   </sheetData>
@@ -8237,28 +8237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2255.528946950878</v>
+        <v>2375.506287666894</v>
       </c>
       <c r="AB2" t="n">
-        <v>3086.114212132661</v>
+        <v>3250.272502727034</v>
       </c>
       <c r="AC2" t="n">
-        <v>2791.579803115104</v>
+        <v>2940.071056852752</v>
       </c>
       <c r="AD2" t="n">
-        <v>2255528.946950878</v>
+        <v>2375506.287666894</v>
       </c>
       <c r="AE2" t="n">
-        <v>3086114.212132661</v>
+        <v>3250272.502727034</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117731860307013e-06</v>
+        <v>1.617103725316205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2791579.803115104</v>
+        <v>2940071.056852751</v>
       </c>
     </row>
     <row r="3">
@@ -8343,28 +8343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.2049585310455</v>
+        <v>865.2790144979006</v>
       </c>
       <c r="AB3" t="n">
-        <v>1101.71694739785</v>
+        <v>1183.912921052003</v>
       </c>
       <c r="AC3" t="n">
-        <v>996.5706282076459</v>
+        <v>1070.92193349902</v>
       </c>
       <c r="AD3" t="n">
-        <v>805204.9585310455</v>
+        <v>865279.0144979006</v>
       </c>
       <c r="AE3" t="n">
-        <v>1101716.94739785</v>
+        <v>1183912.921052003</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025475416901565e-06</v>
+        <v>2.930402146099909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>996570.6282076458</v>
+        <v>1070921.93349902</v>
       </c>
     </row>
     <row r="4">
@@ -8449,28 +8449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.6174473145835</v>
+        <v>652.606072918316</v>
       </c>
       <c r="AB4" t="n">
-        <v>810.8453358524076</v>
+        <v>892.9244199148148</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.4593950272296</v>
+        <v>807.7049665054385</v>
       </c>
       <c r="AD4" t="n">
-        <v>592617.4473145835</v>
+        <v>652606.072918316</v>
       </c>
       <c r="AE4" t="n">
-        <v>810845.3358524076</v>
+        <v>892924.4199148149</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.361927264866628e-06</v>
+        <v>3.417171429552544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.97083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>733459.3950272296</v>
+        <v>807704.9665054386</v>
       </c>
     </row>
     <row r="5">
@@ -8555,28 +8555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>534.5286690091158</v>
+        <v>585.9353889130704</v>
       </c>
       <c r="AB5" t="n">
-        <v>731.365706678834</v>
+        <v>801.7026487558461</v>
       </c>
       <c r="AC5" t="n">
-        <v>661.5651901116215</v>
+        <v>725.1892731553218</v>
       </c>
       <c r="AD5" t="n">
-        <v>534528.6690091158</v>
+        <v>585935.3889130703</v>
       </c>
       <c r="AE5" t="n">
-        <v>731365.706678834</v>
+        <v>801702.6487558461</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.4780972648196e-06</v>
+        <v>3.58524299158383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.3625</v>
       </c>
       <c r="AH5" t="n">
-        <v>661565.1901116215</v>
+        <v>725189.2731553217</v>
       </c>
     </row>
     <row r="6">
@@ -8661,28 +8661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>536.4670013344321</v>
+        <v>587.8737212383866</v>
       </c>
       <c r="AB6" t="n">
-        <v>734.0178184795187</v>
+        <v>804.3547605565307</v>
       </c>
       <c r="AC6" t="n">
-        <v>663.9641880843112</v>
+        <v>727.5882711280115</v>
       </c>
       <c r="AD6" t="n">
-        <v>536467.001334432</v>
+        <v>587873.7212383866</v>
       </c>
       <c r="AE6" t="n">
-        <v>734017.8184795188</v>
+        <v>804354.7605565307</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.478244315452451e-06</v>
+        <v>3.585455740396528e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.3625</v>
       </c>
       <c r="AH6" t="n">
-        <v>663964.1880843112</v>
+        <v>727588.2711280114</v>
       </c>
     </row>
     <row r="7">
@@ -8767,28 +8767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>537.0339408436942</v>
+        <v>588.4406607476487</v>
       </c>
       <c r="AB7" t="n">
-        <v>734.7935301276972</v>
+        <v>805.1304722047092</v>
       </c>
       <c r="AC7" t="n">
-        <v>664.6658669015056</v>
+        <v>728.2899499452059</v>
       </c>
       <c r="AD7" t="n">
-        <v>537033.9408436941</v>
+        <v>588440.6607476487</v>
       </c>
       <c r="AE7" t="n">
-        <v>734793.5301276972</v>
+        <v>805130.4722047092</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.482361733172304e-06</v>
+        <v>3.591412707152067e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.34166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>664665.8669015056</v>
+        <v>728289.9499452058</v>
       </c>
     </row>
   </sheetData>
@@ -9064,28 +9064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.5488228880879</v>
+        <v>900.2405137862861</v>
       </c>
       <c r="AB2" t="n">
-        <v>1132.288808352881</v>
+        <v>1231.748786770864</v>
       </c>
       <c r="AC2" t="n">
-        <v>1024.224753661005</v>
+        <v>1114.192411331733</v>
       </c>
       <c r="AD2" t="n">
-        <v>827548.8228880879</v>
+        <v>900240.5137862861</v>
       </c>
       <c r="AE2" t="n">
-        <v>1132288.808352881</v>
+        <v>1231748.786770864</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.907603713433511e-06</v>
+        <v>2.864619146138775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.37291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1024224.753661005</v>
+        <v>1114192.411331733</v>
       </c>
     </row>
     <row r="3">
@@ -9170,28 +9170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.7188802072375</v>
+        <v>533.2938251149822</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.2137561873108</v>
+        <v>729.6761387854127</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.9175661231461</v>
+        <v>660.0368722066249</v>
       </c>
       <c r="AD3" t="n">
-        <v>484718.8802072375</v>
+        <v>533293.8251149822</v>
       </c>
       <c r="AE3" t="n">
-        <v>663213.7561873108</v>
+        <v>729676.1387854128</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.523426745265811e-06</v>
+        <v>3.789391118009612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>599917.5661231461</v>
+        <v>660036.8722066249</v>
       </c>
     </row>
     <row r="4">
@@ -9276,28 +9276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.7317297069971</v>
+        <v>533.3066746147418</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.2313374397618</v>
+        <v>729.6937200378636</v>
       </c>
       <c r="AC4" t="n">
-        <v>599.9334694455385</v>
+        <v>660.0527755290174</v>
       </c>
       <c r="AD4" t="n">
-        <v>484731.7297069971</v>
+        <v>533306.6746147418</v>
       </c>
       <c r="AE4" t="n">
-        <v>663231.3374397617</v>
+        <v>729693.7200378636</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530585628353503e-06</v>
+        <v>3.800141502596072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.09791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>599933.4694455386</v>
+        <v>660052.7755290173</v>
       </c>
     </row>
   </sheetData>
@@ -9573,28 +9573,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>533.9033532892233</v>
+        <v>596.6835483712952</v>
       </c>
       <c r="AB2" t="n">
-        <v>730.5101221238945</v>
+        <v>816.408754701919</v>
       </c>
       <c r="AC2" t="n">
-        <v>660.7912613457852</v>
+        <v>738.4918489900508</v>
       </c>
       <c r="AD2" t="n">
-        <v>533903.3532892233</v>
+        <v>596683.5483712952</v>
       </c>
       <c r="AE2" t="n">
-        <v>730510.1221238945</v>
+        <v>816408.7547019189</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.338904050057657e-06</v>
+        <v>3.587286482722234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>660791.2613457852</v>
+        <v>738491.8489900508</v>
       </c>
     </row>
     <row r="3">
@@ -9679,28 +9679,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.0576146964881</v>
+        <v>524.0649586410512</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.7853217892322</v>
+        <v>717.0487965269266</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.5342314290235</v>
+        <v>648.6146657707026</v>
       </c>
       <c r="AD3" t="n">
-        <v>469057.6146964881</v>
+        <v>524064.9586410512</v>
       </c>
       <c r="AE3" t="n">
-        <v>641785.3217892322</v>
+        <v>717048.7965269266</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.497990622826209e-06</v>
+        <v>3.831284996496739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.82083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>580534.2314290236</v>
+        <v>648614.6657707025</v>
       </c>
     </row>
     <row r="4">
@@ -9785,28 +9785,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.9647253674135</v>
+        <v>525.9720693119765</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.3947147449769</v>
+        <v>719.6581894826713</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.8945875833781</v>
+        <v>650.975021925057</v>
       </c>
       <c r="AD4" t="n">
-        <v>470964.7253674134</v>
+        <v>525972.0693119765</v>
       </c>
       <c r="AE4" t="n">
-        <v>644394.714744977</v>
+        <v>719658.1894826713</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500973496065619e-06</v>
+        <v>3.83585996863001e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>582894.5875833781</v>
+        <v>650975.0219250571</v>
       </c>
     </row>
   </sheetData>
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.1872557338174</v>
+        <v>535.4479955999769</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.8039229602969</v>
+        <v>732.6235698782772</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.8829871549904</v>
+        <v>662.7030046127319</v>
       </c>
       <c r="AD2" t="n">
-        <v>474187.2557338174</v>
+        <v>535447.995599977</v>
       </c>
       <c r="AE2" t="n">
-        <v>648803.9229602969</v>
+        <v>732623.5698782771</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42051710280114e-06</v>
+        <v>3.782010227542107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>586882.9871549903</v>
+        <v>662703.0046127319</v>
       </c>
     </row>
     <row r="3">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.8561280699221</v>
+        <v>536.1168679360818</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.7191035991204</v>
+        <v>733.5387505171005</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.7108242381086</v>
+        <v>663.5308416958501</v>
       </c>
       <c r="AD3" t="n">
-        <v>474856.1280699222</v>
+        <v>536116.8679360818</v>
       </c>
       <c r="AE3" t="n">
-        <v>649719.1035991204</v>
+        <v>733538.7505171006</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428916914276867e-06</v>
+        <v>3.795134767283578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.70416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>587710.8242381086</v>
+        <v>663530.8416958501</v>
       </c>
     </row>
     <row r="4">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.0577772063584</v>
+        <v>539.3185170725181</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.0997411943837</v>
+        <v>737.9193881123639</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.6733799295434</v>
+        <v>667.493397387285</v>
       </c>
       <c r="AD4" t="n">
-        <v>478057.7772063584</v>
+        <v>539318.5170725181</v>
       </c>
       <c r="AE4" t="n">
-        <v>654099.7411943837</v>
+        <v>737919.3881123639</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428916914276867e-06</v>
+        <v>3.795134767283578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.70416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>591673.3799295435</v>
+        <v>667493.397387285</v>
       </c>
     </row>
   </sheetData>
@@ -17828,28 +17828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.4598554021477</v>
+        <v>600.0004094886093</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.2715528659381</v>
+        <v>820.9470304122134</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.4800222064828</v>
+        <v>742.5969980360646</v>
       </c>
       <c r="AD2" t="n">
-        <v>534459.8554021477</v>
+        <v>600000.4094886093</v>
       </c>
       <c r="AE2" t="n">
-        <v>731271.5528659382</v>
+        <v>820947.0304122134</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.085906219247501e-06</v>
+        <v>3.399351581383381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>661480.0222064828</v>
+        <v>742596.9980360647</v>
       </c>
     </row>
   </sheetData>
@@ -18125,28 +18125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1207.576930662977</v>
+        <v>1290.463635709169</v>
       </c>
       <c r="AB2" t="n">
-        <v>1652.260031067339</v>
+        <v>1765.669277614888</v>
       </c>
       <c r="AC2" t="n">
-        <v>1494.57065266379</v>
+        <v>1597.156279891718</v>
       </c>
       <c r="AD2" t="n">
-        <v>1207576.930662978</v>
+        <v>1290463.635709169</v>
       </c>
       <c r="AE2" t="n">
-        <v>1652260.031067339</v>
+        <v>1765669.277614888</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569317426043699e-06</v>
+        <v>2.318479441825667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1494570.65266379</v>
+        <v>1597156.279891717</v>
       </c>
     </row>
     <row r="3">
@@ -18231,28 +18231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.3451237635707</v>
+        <v>615.2549010375269</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.5841866648213</v>
+        <v>841.8188987301127</v>
       </c>
       <c r="AC3" t="n">
-        <v>689.8042221831581</v>
+        <v>761.4768845355549</v>
       </c>
       <c r="AD3" t="n">
-        <v>557345.1237635707</v>
+        <v>615254.9010375269</v>
       </c>
       <c r="AE3" t="n">
-        <v>762584.1866648213</v>
+        <v>841818.8987301127</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.394674683941376e-06</v>
+        <v>3.537846411720057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>689804.2221831582</v>
+        <v>761476.8845355549</v>
       </c>
     </row>
     <row r="4">
@@ -18337,28 +18337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.5887536804366</v>
+        <v>554.5837823004133</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.4546407352011</v>
+        <v>758.8059974531418</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.6084434440104</v>
+        <v>686.3866180471194</v>
       </c>
       <c r="AD4" t="n">
-        <v>496588.7536804366</v>
+        <v>554583.7823004134</v>
       </c>
       <c r="AE4" t="n">
-        <v>679454.6407352011</v>
+        <v>758805.9974531418</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.519616908664141e-06</v>
+        <v>3.722433656230542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>614608.4434440103</v>
+        <v>686386.6180471195</v>
       </c>
     </row>
     <row r="5">
@@ -18443,28 +18443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>497.4944764717473</v>
+        <v>555.4895050917241</v>
       </c>
       <c r="AB5" t="n">
-        <v>680.693890615942</v>
+        <v>760.0452473338827</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.7294210554314</v>
+        <v>687.5075956585405</v>
       </c>
       <c r="AD5" t="n">
-        <v>497494.4764717473</v>
+        <v>555489.5050917241</v>
       </c>
       <c r="AE5" t="n">
-        <v>680693.890615942</v>
+        <v>760045.2473338827</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.523463652036147e-06</v>
+        <v>3.728116761049214e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.70416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>615729.4210554315</v>
+        <v>687507.5956585405</v>
       </c>
     </row>
   </sheetData>
@@ -18740,28 +18740,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1976.86088168076</v>
+        <v>2087.737658609948</v>
       </c>
       <c r="AB2" t="n">
-        <v>2704.828271262536</v>
+        <v>2856.534768995219</v>
       </c>
       <c r="AC2" t="n">
-        <v>2446.683257303561</v>
+        <v>2583.911099814043</v>
       </c>
       <c r="AD2" t="n">
-        <v>1976860.881680761</v>
+        <v>2087737.658609948</v>
       </c>
       <c r="AE2" t="n">
-        <v>2704828.271262536</v>
+        <v>2856534.768995219</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.200869286912863e-06</v>
+        <v>1.743865170275128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.72291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2446683.257303561</v>
+        <v>2583911.099814043</v>
       </c>
     </row>
     <row r="3">
@@ -18846,28 +18846,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>749.4229125324525</v>
+        <v>817.569434403534</v>
       </c>
       <c r="AB3" t="n">
-        <v>1025.39349113239</v>
+        <v>1118.634568768766</v>
       </c>
       <c r="AC3" t="n">
-        <v>927.5313754875174</v>
+        <v>1011.873655538953</v>
       </c>
       <c r="AD3" t="n">
-        <v>749422.9125324525</v>
+        <v>817569.434403534</v>
       </c>
       <c r="AE3" t="n">
-        <v>1025393.49113239</v>
+        <v>1118634.568768766</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.089770555593269e-06</v>
+        <v>3.034700050605958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>927531.3754875173</v>
+        <v>1011873.655538953</v>
       </c>
     </row>
     <row r="4">
@@ -18952,28 +18952,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>557.2147612826774</v>
+        <v>616.8323003130522</v>
       </c>
       <c r="AB4" t="n">
-        <v>762.4058189672762</v>
+        <v>843.9771660088312</v>
       </c>
       <c r="AC4" t="n">
-        <v>689.6428776483261</v>
+        <v>763.4291698143398</v>
       </c>
       <c r="AD4" t="n">
-        <v>557214.7612826774</v>
+        <v>616832.3003130523</v>
       </c>
       <c r="AE4" t="n">
-        <v>762405.8189672763</v>
+        <v>843977.1660088312</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422645175808033e-06</v>
+        <v>3.518090260171048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>689642.8776483261</v>
+        <v>763429.1698143398</v>
       </c>
     </row>
     <row r="5">
@@ -19058,28 +19058,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>527.097544347028</v>
+        <v>578.1861900452473</v>
       </c>
       <c r="AB5" t="n">
-        <v>721.198114078083</v>
+        <v>791.0998529943645</v>
       </c>
       <c r="AC5" t="n">
-        <v>652.3679782783804</v>
+        <v>715.5983933401988</v>
       </c>
       <c r="AD5" t="n">
-        <v>527097.544347028</v>
+        <v>578186.1900452472</v>
       </c>
       <c r="AE5" t="n">
-        <v>721198.114078083</v>
+        <v>791099.8529943645</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.488182183440517e-06</v>
+        <v>3.61326107203197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.41458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>652367.9782783804</v>
+        <v>715598.3933401988</v>
       </c>
     </row>
     <row r="6">
@@ -19164,28 +19164,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>529.096362724644</v>
+        <v>580.1850084228632</v>
       </c>
       <c r="AB6" t="n">
-        <v>723.9329855639807</v>
+        <v>793.834724480262</v>
       </c>
       <c r="AC6" t="n">
-        <v>654.8418374680801</v>
+        <v>718.0722525298985</v>
       </c>
       <c r="AD6" t="n">
-        <v>529096.362724644</v>
+        <v>580185.0084228632</v>
       </c>
       <c r="AE6" t="n">
-        <v>723932.9855639806</v>
+        <v>793834.724480262</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.488330457213441e-06</v>
+        <v>3.613476390610841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.41458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>654841.8374680801</v>
+        <v>718072.2525298985</v>
       </c>
     </row>
     <row r="7">
@@ -19270,28 +19270,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>529.848874841092</v>
+        <v>580.9375205393112</v>
       </c>
       <c r="AB7" t="n">
-        <v>724.9626058401963</v>
+        <v>794.8643447564777</v>
       </c>
       <c r="AC7" t="n">
-        <v>655.7731922302149</v>
+        <v>719.0036072920333</v>
       </c>
       <c r="AD7" t="n">
-        <v>529848.8748410919</v>
+        <v>580937.5205393112</v>
       </c>
       <c r="AE7" t="n">
-        <v>724962.6058401963</v>
+        <v>794864.3447564777</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.492333849082394e-06</v>
+        <v>3.619289992240355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.39375</v>
       </c>
       <c r="AH7" t="n">
-        <v>655773.1922302149</v>
+        <v>719003.6072920333</v>
       </c>
     </row>
   </sheetData>
@@ -19567,28 +19567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>614.8888961630025</v>
+        <v>693.0759484898541</v>
       </c>
       <c r="AB2" t="n">
-        <v>841.318114713793</v>
+        <v>948.2970890766958</v>
       </c>
       <c r="AC2" t="n">
-        <v>761.023894642898</v>
+        <v>857.7929458385387</v>
       </c>
       <c r="AD2" t="n">
-        <v>614888.8961630025</v>
+        <v>693075.9484898541</v>
       </c>
       <c r="AE2" t="n">
-        <v>841318.1147137929</v>
+        <v>948297.0890766957</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.773770173430512e-06</v>
+        <v>2.956769199581359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.37916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>761023.894642898</v>
+        <v>857792.9458385387</v>
       </c>
     </row>
   </sheetData>
@@ -19864,28 +19864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.2406806893864</v>
+        <v>687.7810084959135</v>
       </c>
       <c r="AB2" t="n">
-        <v>854.113638874407</v>
+        <v>941.0523185807201</v>
       </c>
       <c r="AC2" t="n">
-        <v>772.598231936254</v>
+        <v>851.2396060705997</v>
       </c>
       <c r="AD2" t="n">
-        <v>624240.6806893864</v>
+        <v>687781.0084959135</v>
       </c>
       <c r="AE2" t="n">
-        <v>854113.638874407</v>
+        <v>941052.3185807201</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.182664387135632e-06</v>
+        <v>3.321811383778165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>772598.2319362541</v>
+        <v>851239.6060705998</v>
       </c>
     </row>
     <row r="3">
@@ -19970,28 +19970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.1303684703464</v>
+        <v>529.7281553010577</v>
       </c>
       <c r="AB3" t="n">
-        <v>648.7260872967271</v>
+        <v>724.7974320397509</v>
       </c>
       <c r="AC3" t="n">
-        <v>586.8125800179085</v>
+        <v>655.6237823854611</v>
       </c>
       <c r="AD3" t="n">
-        <v>474130.3684703464</v>
+        <v>529728.1553010576</v>
       </c>
       <c r="AE3" t="n">
-        <v>648726.0872967271</v>
+        <v>724797.4320397509</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.512039972116372e-06</v>
+        <v>3.823090267593858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54375</v>
       </c>
       <c r="AH3" t="n">
-        <v>586812.5800179086</v>
+        <v>655623.7823854611</v>
       </c>
     </row>
     <row r="4">
@@ -20076,28 +20076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>475.7323436068822</v>
+        <v>531.3301304375933</v>
       </c>
       <c r="AB4" t="n">
-        <v>650.9179803526904</v>
+        <v>726.9893250957142</v>
       </c>
       <c r="AC4" t="n">
-        <v>588.795281876952</v>
+        <v>657.6064842445046</v>
       </c>
       <c r="AD4" t="n">
-        <v>475732.3436068822</v>
+        <v>531330.1304375933</v>
       </c>
       <c r="AE4" t="n">
-        <v>650917.9803526904</v>
+        <v>726989.3250957142</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.515305967009587e-06</v>
+        <v>3.828060806848352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.525</v>
       </c>
       <c r="AH4" t="n">
-        <v>588795.281876952</v>
+        <v>657606.4842445046</v>
       </c>
     </row>
     <row r="5">
@@ -20182,28 +20182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.3423232472051</v>
+        <v>532.9401100779162</v>
       </c>
       <c r="AB5" t="n">
-        <v>653.120825523869</v>
+        <v>729.1921702668927</v>
       </c>
       <c r="AC5" t="n">
-        <v>590.787890596706</v>
+        <v>659.5990929642585</v>
       </c>
       <c r="AD5" t="n">
-        <v>477342.3232472051</v>
+        <v>532940.1100779162</v>
       </c>
       <c r="AE5" t="n">
-        <v>653120.825523869</v>
+        <v>729192.1702668928</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.518408662158141e-06</v>
+        <v>3.832782819140122e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.50833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>590787.890596706</v>
+        <v>659599.0929642585</v>
       </c>
     </row>
   </sheetData>
@@ -20479,28 +20479,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>942.0744955187805</v>
+        <v>1015.485234550041</v>
       </c>
       <c r="AB2" t="n">
-        <v>1288.987886162282</v>
+        <v>1389.431697958086</v>
       </c>
       <c r="AC2" t="n">
-        <v>1165.968691412814</v>
+        <v>1256.826286784601</v>
       </c>
       <c r="AD2" t="n">
-        <v>942074.4955187805</v>
+        <v>1015485.234550041</v>
       </c>
       <c r="AE2" t="n">
-        <v>1288987.886162282</v>
+        <v>1389431.697958086</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786992659527353e-06</v>
+        <v>2.667820451546043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.33125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1165968.691412814</v>
+        <v>1256826.286784601</v>
       </c>
     </row>
     <row r="3">
@@ -20585,28 +20585,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>493.4924973841912</v>
+        <v>542.4899138109292</v>
       </c>
       <c r="AB3" t="n">
-        <v>675.2182062734908</v>
+        <v>742.2586330420077</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.7763283414527</v>
+        <v>671.4185108710121</v>
       </c>
       <c r="AD3" t="n">
-        <v>493492.4973841912</v>
+        <v>542489.9138109293</v>
       </c>
       <c r="AE3" t="n">
-        <v>675218.2062734908</v>
+        <v>742258.6330420077</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.517291876798562e-06</v>
+        <v>3.758091962845653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0125</v>
       </c>
       <c r="AH3" t="n">
-        <v>610776.3283414526</v>
+        <v>671418.5108710121</v>
       </c>
     </row>
     <row r="4">
@@ -20691,28 +20691,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>482.7117875929291</v>
+        <v>539.7899948095758</v>
       </c>
       <c r="AB4" t="n">
-        <v>660.467563525737</v>
+        <v>738.5644847523358</v>
       </c>
       <c r="AC4" t="n">
-        <v>597.4334662348873</v>
+        <v>668.0769269093369</v>
       </c>
       <c r="AD4" t="n">
-        <v>482711.787592929</v>
+        <v>539789.9948095757</v>
       </c>
       <c r="AE4" t="n">
-        <v>660467.563525737</v>
+        <v>738564.4847523358</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530498579543617e-06</v>
+        <v>3.777808390606508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.94375</v>
       </c>
       <c r="AH4" t="n">
-        <v>597433.4662348873</v>
+        <v>668076.9269093368</v>
       </c>
     </row>
     <row r="5">
@@ -20797,28 +20797,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>484.776620751458</v>
+        <v>541.8548279681047</v>
       </c>
       <c r="AB5" t="n">
-        <v>663.2927593472461</v>
+        <v>741.3896805738451</v>
       </c>
       <c r="AC5" t="n">
-        <v>599.9890293323789</v>
+        <v>670.6324900068287</v>
       </c>
       <c r="AD5" t="n">
-        <v>484776.620751458</v>
+        <v>541854.8279681047</v>
       </c>
       <c r="AE5" t="n">
-        <v>663292.7593472461</v>
+        <v>741389.6805738452</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530655802195344e-06</v>
+        <v>3.778043109984613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.94375</v>
       </c>
       <c r="AH5" t="n">
-        <v>599989.0293323789</v>
+        <v>670632.4900068287</v>
       </c>
     </row>
   </sheetData>
